--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-704029.6207215383</v>
+        <v>-706927.0489791745</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>18.2100830470313</v>
+        <v>13.88719820851069</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>10.78545761117203</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.38369583986329</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6361855654809041</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2100830470313</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2100830470313</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>18.2100830470313</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>18.2100830470313</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.4983113685828951</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>18.21008304703216</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924345</v>
+        <v>15.54112977924302</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>18.21008304703216</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.21008304703216</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4983113685817133</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.70732065777799</v>
+        <v>29.96843011879469</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>16.26110946101672</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>16.44799022605969</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>43.85944218949135</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1139,22 +1139,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>81.30196747731281</v>
       </c>
       <c r="G8" t="n">
-        <v>13.38870434448781</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771693</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>62.87244063411634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7.396679373398285</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>108.5166779089038</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.625377488803504</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>29.76498982117829</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873204</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589019</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>215.5367273796997</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>12.98811655122862</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>82.7005799695898</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>72.48662368679476</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1622,10 @@
         <v>410.592917841534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.90056660389934</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740603</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4786139429426</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.9688673339484</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>44.32009402261097</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.89778431512082</v>
+        <v>87.89778431512079</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853822</v>
+        <v>12.76005920853815</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
-        <v>134.0319281257527</v>
+        <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396098</v>
+        <v>82.30038209396091</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9187567628735</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2037931948048</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>127.8808053364033</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295179</v>
+        <v>60.3201464229518</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -2005,22 +2005,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943542</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453017</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T19" t="n">
         <v>186.4872700401421</v>
@@ -2065,7 +2065,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
         <v>186.9744509998809</v>
@@ -2087,7 +2087,7 @@
         <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200482</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2141,7 +2141,7 @@
         <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651978</v>
       </c>
       <c r="X20" t="n">
         <v>338.1208983262551</v>
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S22" t="n">
-        <v>152.238650242483</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
         <v>186.4872700401421</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843753</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.3201464229518</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2953,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453017</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612652</v>
@@ -3013,10 +3013,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H32" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295169</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221571</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545717</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943538</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453022</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221587</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200485</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G40" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3724,10 +3724,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3904,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707173</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -3992,7 +3992,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4138,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659968</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G46" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4198,10 +4198,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.79633067279557</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="C2" t="n">
-        <v>26.79633067279557</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="D2" t="n">
-        <v>26.79633067279557</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="E2" t="n">
-        <v>26.79633067279557</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="F2" t="n">
-        <v>19.8508299235921</v>
+        <v>65.89483143892515</v>
       </c>
       <c r="G2" t="n">
-        <v>1.456806643762504</v>
+        <v>51.86735850103557</v>
       </c>
       <c r="H2" t="n">
-        <v>1.456806643762504</v>
+        <v>51.86735850103557</v>
       </c>
       <c r="I2" t="n">
-        <v>1.456806643762504</v>
+        <v>51.86735850103557</v>
       </c>
       <c r="J2" t="n">
-        <v>1.456806643762504</v>
+        <v>51.86735850103557</v>
       </c>
       <c r="K2" t="n">
-        <v>1.456806643762504</v>
+        <v>40.97295687358907</v>
       </c>
       <c r="L2" t="n">
-        <v>1.456806643762504</v>
+        <v>28.46417319695948</v>
       </c>
       <c r="M2" t="n">
-        <v>19.48478886032349</v>
+        <v>46.49215541352132</v>
       </c>
       <c r="N2" t="n">
-        <v>37.51277107688447</v>
+        <v>64.52013763008316</v>
       </c>
       <c r="O2" t="n">
-        <v>45.8329656349291</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="P2" t="n">
-        <v>45.8329656349291</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.19035395262516</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="R2" t="n">
-        <v>26.79633067279557</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="S2" t="n">
-        <v>26.79633067279557</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="T2" t="n">
-        <v>26.79633067279557</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="U2" t="n">
-        <v>26.79633067279557</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="V2" t="n">
-        <v>26.79633067279557</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="W2" t="n">
-        <v>26.79633067279557</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="X2" t="n">
-        <v>26.79633067279557</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="Y2" t="n">
-        <v>26.79633067279557</v>
+        <v>72.84033218812863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.33698737137598</v>
+        <v>36.0522856284677</v>
       </c>
       <c r="C3" t="n">
-        <v>53.94296409154639</v>
+        <v>36.0522856284677</v>
       </c>
       <c r="D3" t="n">
-        <v>53.94296409154639</v>
+        <v>36.0522856284677</v>
       </c>
       <c r="E3" t="n">
-        <v>35.54894081171679</v>
+        <v>36.0522856284677</v>
       </c>
       <c r="F3" t="n">
-        <v>17.1549175318872</v>
+        <v>36.0522856284677</v>
       </c>
       <c r="G3" t="n">
-        <v>17.1549175318872</v>
+        <v>36.0522856284677</v>
       </c>
       <c r="H3" t="n">
-        <v>17.1549175318872</v>
+        <v>36.0522856284677</v>
       </c>
       <c r="I3" t="n">
-        <v>17.1549175318872</v>
+        <v>35.5489408117173</v>
       </c>
       <c r="J3" t="n">
-        <v>17.1549175318872</v>
+        <v>17.15491753188684</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032349</v>
+        <v>19.48478886032441</v>
       </c>
       <c r="M3" t="n">
-        <v>37.51277107688447</v>
+        <v>37.51277107688624</v>
       </c>
       <c r="N3" t="n">
-        <v>55.54075329344545</v>
+        <v>44.26685867885072</v>
       </c>
       <c r="O3" t="n">
-        <v>62.29484089540962</v>
+        <v>62.29484089541256</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218812519</v>
+        <v>72.84033218812863</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.84033218812519</v>
+        <v>54.44630890829816</v>
       </c>
       <c r="R3" t="n">
-        <v>72.84033218812519</v>
+        <v>36.0522856284677</v>
       </c>
       <c r="S3" t="n">
-        <v>72.33698737137598</v>
+        <v>36.0522856284677</v>
       </c>
       <c r="T3" t="n">
-        <v>72.33698737137598</v>
+        <v>36.0522856284677</v>
       </c>
       <c r="U3" t="n">
-        <v>72.33698737137598</v>
+        <v>36.0522856284677</v>
       </c>
       <c r="V3" t="n">
-        <v>72.33698737137598</v>
+        <v>36.0522856284677</v>
       </c>
       <c r="W3" t="n">
-        <v>72.33698737137598</v>
+        <v>36.0522856284677</v>
       </c>
       <c r="X3" t="n">
-        <v>72.33698737137598</v>
+        <v>36.0522856284677</v>
       </c>
       <c r="Y3" t="n">
-        <v>72.33698737137598</v>
+        <v>36.0522856284677</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="C4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="D4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="E4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="F4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="G4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="K4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="L4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="M4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="N4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="O4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="P4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="R4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="S4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="T4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="U4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="V4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="W4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="X4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.456806643762573</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88.19279592077088</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="C5" t="n">
-        <v>88.19279592077088</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="D5" t="n">
-        <v>88.19279592077088</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="E5" t="n">
-        <v>88.19279592077088</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="F5" t="n">
-        <v>81.2472951715674</v>
+        <v>97.67265826350346</v>
       </c>
       <c r="G5" t="n">
         <v>67.40151672936742</v>
@@ -4586,31 +4586,31 @@
         <v>154.9161459087924</v>
       </c>
       <c r="Q5" t="n">
-        <v>154.9161459087924</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="R5" t="n">
-        <v>154.9161459087924</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9161459087924</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="T5" t="n">
-        <v>154.9161459087924</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="U5" t="n">
-        <v>154.9161459087924</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="V5" t="n">
-        <v>138.4907828168564</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="W5" t="n">
-        <v>138.4907828168564</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="X5" t="n">
-        <v>88.19279592077088</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="Y5" t="n">
-        <v>88.19279592077088</v>
+        <v>104.6181590127069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.58405431632752</v>
+        <v>117.551221084159</v>
       </c>
       <c r="C6" t="n">
-        <v>48.28606742024204</v>
+        <v>117.551221084159</v>
       </c>
       <c r="D6" t="n">
-        <v>48.28606742024204</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="E6" t="n">
-        <v>48.28606742024204</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="F6" t="n">
-        <v>48.28606742024204</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="G6" t="n">
-        <v>48.28606742024204</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="H6" t="n">
-        <v>48.28606742024204</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="I6" t="n">
-        <v>48.28606742024204</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4650,46 +4650,46 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L6" t="n">
-        <v>22.54896088111074</v>
+        <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O6" t="n">
-        <v>170.4401317516709</v>
+        <v>198.1973125878844</v>
       </c>
       <c r="P6" t="n">
         <v>199.1800281084985</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="R6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="S6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="T6" t="n">
-        <v>148.882041212413</v>
+        <v>117.551221084159</v>
       </c>
       <c r="U6" t="n">
-        <v>148.882041212413</v>
+        <v>117.551221084159</v>
       </c>
       <c r="V6" t="n">
-        <v>148.882041212413</v>
+        <v>117.551221084159</v>
       </c>
       <c r="W6" t="n">
-        <v>148.882041212413</v>
+        <v>117.551221084159</v>
       </c>
       <c r="X6" t="n">
-        <v>98.58405431632752</v>
+        <v>117.551221084159</v>
       </c>
       <c r="Y6" t="n">
-        <v>98.58405431632752</v>
+        <v>117.551221084159</v>
       </c>
     </row>
     <row r="7">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>255.9286798161011</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="C8" t="n">
-        <v>255.9286798161011</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="D8" t="n">
-        <v>255.9286798161011</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="E8" t="n">
-        <v>142.6835685788047</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="F8" t="n">
-        <v>135.7380678296012</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="G8" t="n">
-        <v>122.2141240472903</v>
+        <v>140.996681329578</v>
       </c>
       <c r="H8" t="n">
-        <v>8.969012809993874</v>
+        <v>140.996681329578</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993874</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687534</v>
+        <v>32.11753523687554</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773379</v>
+        <v>97.73708609773416</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083926</v>
+        <v>202.4209174083929</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320668</v>
+        <v>313.4124509320674</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416789</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q8" t="n">
-        <v>432.6813068454342</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="R8" t="n">
-        <v>432.6813068454342</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="S8" t="n">
-        <v>432.6813068454342</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="T8" t="n">
-        <v>432.6813068454342</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="U8" t="n">
-        <v>432.6813068454342</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="V8" t="n">
-        <v>319.4361956081378</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="W8" t="n">
-        <v>319.4361956081378</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="X8" t="n">
-        <v>319.4361956081378</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.9286798161011</v>
+        <v>336.3649920389078</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112.3476120565112</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="C9" t="n">
-        <v>112.3476120565112</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="D9" t="n">
-        <v>112.3476120565112</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="E9" t="n">
-        <v>112.3476120565112</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="F9" t="n">
-        <v>112.3476120565112</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G9" t="n">
-        <v>112.3476120565112</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H9" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I9" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>36.2216681853454</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>119.188767679223</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>230.1803012028972</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640687</v>
+        <v>341.1718347265721</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953186</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996937</v>
+        <v>439.100581130178</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996937</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="S9" t="n">
-        <v>448.4506404996937</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="T9" t="n">
-        <v>448.4506404996937</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="U9" t="n">
-        <v>448.4506404996937</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="V9" t="n">
-        <v>335.2055292623973</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="W9" t="n">
-        <v>335.2055292623973</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="X9" t="n">
-        <v>225.5927232938076</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="Y9" t="n">
-        <v>112.3476120565112</v>
+        <v>356.1757398283467</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="C10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="E10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="L10" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="M10" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="N10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="O10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="X10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1648.004869410821</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C11" t="n">
-        <v>1648.004869410821</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767943</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794326</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W11" t="n">
-        <v>2424.744041450754</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X11" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y11" t="n">
-        <v>2034.604709474943</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.9108438165262</v>
+        <v>785.6801677492705</v>
       </c>
       <c r="C13" t="n">
-        <v>754.9746608886193</v>
+        <v>785.6801677492705</v>
       </c>
       <c r="D13" t="n">
-        <v>604.8580214762835</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>456.9449278938904</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791229</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279992</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764953</v>
+        <v>632.1817302764913</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760442</v>
+        <v>976.3387758760402</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581909</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502322</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935982</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088496</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1843.758608725274</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1843.758608725274</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1843.758608725274</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U13" t="n">
-        <v>1843.758608725274</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V13" t="n">
-        <v>1843.758608725274</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="W13" t="n">
-        <v>1554.341438688313</v>
+        <v>1416.110762621058</v>
       </c>
       <c r="X13" t="n">
-        <v>1326.351887790296</v>
+        <v>1188.12121172304</v>
       </c>
       <c r="Y13" t="n">
-        <v>1105.559308646766</v>
+        <v>967.3286325795102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1331.741292264949</v>
+        <v>1967.685407793096</v>
       </c>
       <c r="C14" t="n">
-        <v>1331.741292264949</v>
+        <v>1967.685407793096</v>
       </c>
       <c r="D14" t="n">
-        <v>973.4755936581982</v>
+        <v>1609.419709186345</v>
       </c>
       <c r="E14" t="n">
-        <v>900.2567818533551</v>
+        <v>1223.631456588101</v>
       </c>
       <c r="F14" t="n">
-        <v>489.2708770637475</v>
+        <v>812.6455517984934</v>
       </c>
       <c r="G14" t="n">
-        <v>74.53055601169297</v>
+        <v>397.9052307464398</v>
       </c>
       <c r="H14" t="n">
-        <v>74.53055601169297</v>
+        <v>103.7230475307833</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169297</v>
+        <v>74.53055601169306</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773517</v>
+        <v>291.0377674773526</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720055985</v>
+        <v>666.2644720056001</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645699</v>
+        <v>1168.668140645701</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275286</v>
+        <v>1759.358462275288</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235391</v>
+        <v>2364.220579235393</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163074</v>
+        <v>2922.039463163077</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140403</v>
+        <v>3363.623974140407</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049513</v>
+        <v>3647.062805049517</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584649</v>
+        <v>3726.527800584653</v>
       </c>
       <c r="S14" t="n">
-        <v>3623.805524045194</v>
+        <v>3726.527800584653</v>
       </c>
       <c r="T14" t="n">
-        <v>3419.281671577575</v>
+        <v>3726.527800584653</v>
       </c>
       <c r="U14" t="n">
-        <v>3165.777765179647</v>
+        <v>3473.023894186726</v>
       </c>
       <c r="V14" t="n">
-        <v>2834.714877836077</v>
+        <v>3141.961006843155</v>
       </c>
       <c r="W14" t="n">
-        <v>2481.946222565962</v>
+        <v>2789.19235157304</v>
       </c>
       <c r="X14" t="n">
-        <v>2108.480464304882</v>
+        <v>2744.424579833029</v>
       </c>
       <c r="Y14" t="n">
-        <v>1718.341132329071</v>
+        <v>2354.285247857218</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718612</v>
+        <v>87.41950470718615</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169297</v>
+        <v>74.53055601169306</v>
       </c>
       <c r="J15" t="n">
-        <v>184.6629209807617</v>
+        <v>74.53055601169306</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0514990628285</v>
+        <v>170.1112445399369</v>
       </c>
       <c r="L15" t="n">
-        <v>855.5663578417086</v>
+        <v>574.6261033188175</v>
       </c>
       <c r="M15" t="n">
-        <v>1346.972986475664</v>
+        <v>1066.032731952774</v>
       </c>
       <c r="N15" t="n">
-        <v>1865.794331259249</v>
+        <v>1584.854076736359</v>
       </c>
       <c r="O15" t="n">
-        <v>2318.194706560482</v>
+        <v>2037.254452037593</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.340332577117</v>
+        <v>2381.012571295174</v>
       </c>
       <c r="Q15" t="n">
-        <v>2550.214335272918</v>
+        <v>2560.886573990975</v>
       </c>
       <c r="R15" t="n">
         <v>2560.886573990975</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822.3898774335919</v>
+        <v>852.9197849880549</v>
       </c>
       <c r="C16" t="n">
-        <v>822.3898774335919</v>
+        <v>683.9836020601474</v>
       </c>
       <c r="D16" t="n">
-        <v>672.2732380212561</v>
+        <v>533.8669626478116</v>
       </c>
       <c r="E16" t="n">
-        <v>524.360144438863</v>
+        <v>533.8669626478116</v>
       </c>
       <c r="F16" t="n">
-        <v>377.4701969409526</v>
+        <v>386.9770151499013</v>
       </c>
       <c r="G16" t="n">
-        <v>209.9163419973018</v>
+        <v>219.4231602062505</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53055601169297</v>
+        <v>74.53055601169306</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169297</v>
+        <v>74.53055601169306</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525471</v>
+        <v>129.9765865525472</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923171</v>
+        <v>350.9282837923174</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553102</v>
+        <v>689.1968198553109</v>
       </c>
       <c r="M16" t="n">
-        <v>1056.242685479732</v>
+        <v>1056.242685479733</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229307</v>
+        <v>1419.995637229308</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776857</v>
+        <v>1739.964067776859</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135873</v>
+        <v>1990.231654135874</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389594</v>
+        <v>2080.068878389596</v>
       </c>
       <c r="R16" t="n">
-        <v>1996.937179304785</v>
+        <v>1996.937179304787</v>
       </c>
       <c r="S16" t="n">
-        <v>1996.937179304785</v>
+        <v>1996.937179304787</v>
       </c>
       <c r="T16" t="n">
-        <v>1775.807121968549</v>
+        <v>1996.937179304787</v>
       </c>
       <c r="U16" t="n">
-        <v>1486.712381367736</v>
+        <v>1707.842438703974</v>
       </c>
       <c r="V16" t="n">
-        <v>1232.027893161849</v>
+        <v>1453.157950498087</v>
       </c>
       <c r="W16" t="n">
-        <v>1232.027893161849</v>
+        <v>1163.740780461126</v>
       </c>
       <c r="X16" t="n">
-        <v>1004.038342263832</v>
+        <v>1163.740780461126</v>
       </c>
       <c r="Y16" t="n">
-        <v>1004.038342263832</v>
+        <v>1034.568249818295</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5528,7 +5528,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
         <v>3813.656640612704</v>
@@ -5546,16 +5546,16 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
         <v>2476.13298385146</v>
@@ -5586,13 +5586,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
         <v>519.5985603334505</v>
@@ -5601,19 +5601,19 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1551.25253785418</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O18" t="n">
-        <v>2057.65749280243</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P18" t="n">
-        <v>2444.759048354586</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477709</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609038</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G19" t="n">
         <v>251.2943450749444</v>
@@ -5668,13 +5668,13 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L19" t="n">
         <v>857.3827676902788</v>
@@ -5695,10 +5695,10 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T19" t="n">
         <v>2144.901839127669</v>
@@ -5713,10 +5713,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5738,28 +5738,28 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
         <v>2681.771598889755</v>
@@ -5768,34 +5768,34 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J21" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>519.5985603334505</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1068.51702494374</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039801</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L22" t="n">
         <v>857.3827676902786</v>
@@ -5923,34 +5923,34 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796671</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076839</v>
@@ -5996,7 +5996,7 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
         <v>2681.771598889755</v>
@@ -6011,28 +6011,28 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>326.515925275411</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>326.515925275411</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>875.4343898857001</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
@@ -6160,22 +6160,22 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
         <v>1887.747186237502</v>
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233288</v>
@@ -6245,31 +6245,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6297,13 +6297,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
         <v>519.5985603334505</v>
@@ -6312,19 +6312,19 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M27" t="n">
-        <v>1357.07436680343</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
         <v>1709.719201354973</v>
@@ -6406,28 +6406,28 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
         <v>1104.234664943806</v>
@@ -6452,19 +6452,19 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511598</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
@@ -6476,19 +6476,19 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
         <v>4017.391409283565</v>
@@ -6497,16 +6497,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
         <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>688.8525027970467</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.626315333738</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>2322.031270281988</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C31" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G31" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511623</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042788</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443616</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L31" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
         <v>2529.521427597205</v>
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796669</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
         <v>2681.771598889755</v>
@@ -6719,31 +6719,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
         <v>519.5985603334505</v>
       </c>
       <c r="L33" t="n">
-        <v>519.5985603334505</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M33" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D34" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042761</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443589</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902765</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040891</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354971</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511598</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6956,31 +6956,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
         <v>519.5985603334505</v>
       </c>
       <c r="L36" t="n">
-        <v>850.66941185518</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609034</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F37" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511623</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7108,37 +7108,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511625</v>
@@ -7184,7 +7184,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233288</v>
@@ -7199,25 +7199,25 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7260,19 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281988</v>
+        <v>2487.272558016625</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609046</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897932</v>
@@ -7330,52 +7330,52 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042802</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443629</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902804</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
@@ -7430,13 +7430,13 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
         <v>4017.391409283565</v>
@@ -7482,13 +7482,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
         <v>519.5985603334505</v>
@@ -7497,19 +7497,19 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M42" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2487.272558016625</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7628,25 +7628,25 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162846</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I44" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
         <v>766.6831886951454</v>
@@ -7673,25 +7673,25 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J45" t="n">
-        <v>118.5947109415081</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K45" t="n">
-        <v>421.6357602913726</v>
+        <v>388.0214583249807</v>
       </c>
       <c r="L45" t="n">
-        <v>875.4343898857001</v>
+        <v>535.3638672866908</v>
       </c>
       <c r="M45" t="n">
-        <v>875.4343898857001</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.289737812102</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O45" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
         <v>2555.644190323788</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502087</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477704</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G46" t="n">
         <v>251.2943450749444</v>
@@ -7804,13 +7804,13 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7819,7 +7819,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
         <v>2392.455631028688</v>
@@ -7834,22 +7834,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
   </sheetData>
@@ -9814,7 +9814,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>65.3429583777513</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10045,7 +10045,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658819</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272086</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
@@ -10519,7 +10519,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658838</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272508</v>
       </c>
       <c r="K40" t="n">
         <v>106.7437663446525</v>
@@ -10996,7 +10996,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140408</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>324.9180517995046</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>154.1943732987693</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>135.6273564669837</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.231572700457534</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>309.443746385467</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2403613834999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389948</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.6950537740602</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4786139429425</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>325.411006655858</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>9.411750026859112</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434403</v>
+        <v>91.91693778434399</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>90.70384801569148</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.012949724099599e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.882938249764265e-12</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-12</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>987090.3311924322</v>
+        <v>987090.3311924321</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1039524.269724006</v>
+        <v>1039524.269724007</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="C2" t="n">
+        <v>266838.5752058923</v>
+      </c>
+      <c r="D2" t="n">
         <v>266838.5752058921</v>
-      </c>
-      <c r="D2" t="n">
-        <v>266838.575205892</v>
       </c>
       <c r="E2" t="n">
         <v>221648.1143310985</v>
       </c>
       <c r="F2" t="n">
-        <v>233606.731890931</v>
+        <v>233606.7318909312</v>
       </c>
       <c r="G2" t="n">
         <v>266838.5752058922</v>
@@ -26332,10 +26332,10 @@
         <v>266838.5752058921</v>
       </c>
       <c r="I2" t="n">
+        <v>266838.5752058923</v>
+      </c>
+      <c r="J2" t="n">
         <v>266838.5752058922</v>
-      </c>
-      <c r="J2" t="n">
-        <v>266838.5752058921</v>
       </c>
       <c r="K2" t="n">
         <v>266838.5752058921</v>
@@ -26344,16 +26344,16 @@
         <v>266838.5752058923</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="N2" t="n">
         <v>266838.5752058923</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321815</v>
+        <v>345405.597032183</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876598</v>
+        <v>50948.63134876456</v>
       </c>
       <c r="D3" t="n">
-        <v>87233.51607513204</v>
+        <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429542</v>
+        <v>707780.8576429534</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654286</v>
+        <v>93369.8848465443</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975339</v>
+        <v>143964.0818975328</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.920821771112969e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757517</v>
+        <v>4764.558968757622</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908601</v>
+        <v>8128.948714908497</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194619</v>
+        <v>41060.19902194615</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383016</v>
+        <v>179249.6449383014</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613169</v>
+        <v>24549.15438613205</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875968</v>
+        <v>31434.59456875929</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348982.9265318206</v>
+        <v>348982.9265318202</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
       </c>
       <c r="D4" t="n">
-        <v>305279.4906303399</v>
+        <v>305279.4906303398</v>
       </c>
       <c r="E4" t="n">
-        <v>15869.84275221464</v>
+        <v>15869.84275221455</v>
       </c>
       <c r="F4" t="n">
         <v>15921.71033071284</v>
       </c>
       <c r="G4" t="n">
-        <v>47059.20276613308</v>
+        <v>47059.20276613306</v>
       </c>
       <c r="H4" t="n">
         <v>47059.20276613308</v>
@@ -26439,25 +26439,25 @@
         <v>47059.20276613308</v>
       </c>
       <c r="J4" t="n">
-        <v>47059.20276613302</v>
+        <v>47059.20276613309</v>
       </c>
       <c r="K4" t="n">
+        <v>47059.20276613312</v>
+      </c>
+      <c r="L4" t="n">
+        <v>47059.20276613314</v>
+      </c>
+      <c r="M4" t="n">
+        <v>47059.20276613305</v>
+      </c>
+      <c r="N4" t="n">
+        <v>47059.20276613309</v>
+      </c>
+      <c r="O4" t="n">
+        <v>47059.20276613309</v>
+      </c>
+      <c r="P4" t="n">
         <v>47059.20276613306</v>
-      </c>
-      <c r="L4" t="n">
-        <v>47059.20276613309</v>
-      </c>
-      <c r="M4" t="n">
-        <v>47059.20276613309</v>
-      </c>
-      <c r="N4" t="n">
-        <v>47059.20276613306</v>
-      </c>
-      <c r="O4" t="n">
-        <v>47059.20276613308</v>
-      </c>
-      <c r="P4" t="n">
-        <v>47059.20276613309</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425673</v>
+        <v>42410.88882425681</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
       </c>
       <c r="D5" t="n">
-        <v>50823.37311172269</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390702</v>
+        <v>82183.39720390711</v>
       </c>
       <c r="G5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="H5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="I5" t="n">
         <v>95106.4341021553</v>
-      </c>
-      <c r="H5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="I5" t="n">
-        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215528</v>
@@ -26506,7 +26506,7 @@
         <v>95106.4341021553</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
         <v>95106.4341021553</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-469960.8371823668</v>
+        <v>-469960.8371823679</v>
       </c>
       <c r="C6" t="n">
-        <v>-162673.2815807867</v>
+        <v>-162673.2815807851</v>
       </c>
       <c r="D6" t="n">
         <v>-176497.8046113027</v>
       </c>
       <c r="E6" t="n">
-        <v>-576308.9266254636</v>
+        <v>-576656.5455552688</v>
       </c>
       <c r="F6" t="n">
-        <v>42131.73950976832</v>
+        <v>41876.10994580569</v>
       </c>
       <c r="G6" t="n">
-        <v>-19291.1435599301</v>
+        <v>-19291.14355992895</v>
       </c>
       <c r="H6" t="n">
-        <v>124672.9383376038</v>
+        <v>124672.938337604</v>
       </c>
       <c r="I6" t="n">
-        <v>124672.9383376039</v>
+        <v>124672.9383376036</v>
       </c>
       <c r="J6" t="n">
-        <v>119908.3793688463</v>
+        <v>119908.3793688462</v>
       </c>
       <c r="K6" t="n">
         <v>116543.9896226952</v>
       </c>
       <c r="L6" t="n">
-        <v>83612.7393156577</v>
+        <v>83612.73931565775</v>
       </c>
       <c r="M6" t="n">
-        <v>-54576.70660069787</v>
+        <v>-54576.70660069765</v>
       </c>
       <c r="N6" t="n">
-        <v>100123.7839514722</v>
+        <v>100123.7839514719</v>
       </c>
       <c r="O6" t="n">
-        <v>93238.34376884412</v>
+        <v>93238.34376884431</v>
       </c>
       <c r="P6" t="n">
-        <v>124672.9383376036</v>
+        <v>124672.9383376038</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H2" t="n">
         <v>31.61020235221391</v>
@@ -26707,25 +26707,25 @@
         <v>31.61020235221391</v>
       </c>
       <c r="J2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.610202352214</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.61020235221385</v>
       </c>
-      <c r="K2" t="n">
-        <v>31.6102023522139</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.6102023522139</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221394</v>
-      </c>
       <c r="N2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228087</v>
+        <v>352.1154025228099</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>476.1157511985019</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1171.567643808273</v>
+        <v>1171.567643808274</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.2100830470313</v>
+        <v>18.21008304703216</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="D4" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461621</v>
+        <v>931.6319501461633</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228087</v>
+        <v>352.1154025228099</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074475938</v>
+        <v>44.74454074475813</v>
       </c>
       <c r="D3" t="n">
-        <v>79.25580793093388</v>
+        <v>79.25580793093417</v>
       </c>
       <c r="E3" t="n">
-        <v>613.6609493947964</v>
+        <v>613.6609493947958</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497519</v>
+        <v>81.79094321497632</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118495</v>
+        <v>106.5922268118486</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,46 +27009,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.2100830470313</v>
+        <v>18.21008304703216</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009333</v>
+        <v>31.58492398009247</v>
       </c>
       <c r="D4" t="n">
+        <v>62.31765309779902</v>
+      </c>
+      <c r="E4" t="n">
+        <v>719.2887952773688</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100.2304947438708</v>
+      </c>
+      <c r="G4" t="n">
+        <v>130.6231620427895</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18.21008304703193</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31.5849239800927</v>
+      </c>
+      <c r="L4" t="n">
         <v>62.3176530977988</v>
       </c>
-      <c r="E4" t="n">
-        <v>719.2887952773696</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100.2304947438691</v>
-      </c>
-      <c r="G4" t="n">
-        <v>130.6231620427909</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18.21008304703152</v>
-      </c>
-      <c r="K4" t="n">
-        <v>31.5849239800931</v>
-      </c>
-      <c r="L4" t="n">
-        <v>62.31765309779902</v>
-      </c>
       <c r="M4" t="n">
-        <v>719.2887952773693</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438694</v>
+        <v>100.2304947438708</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427909</v>
+        <v>130.6231620427893</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.2100830470313</v>
+        <v>18.21008304703216</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009333</v>
+        <v>31.58492398009247</v>
       </c>
       <c r="L4" t="n">
-        <v>62.3176530977988</v>
+        <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773696</v>
+        <v>719.2887952773688</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438691</v>
+        <v>100.2304947438708</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427909</v>
+        <v>130.6231620427895</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,22 +27391,22 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>395.6771151614794</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>324.9779101918004</v>
       </c>
       <c r="I2" t="n">
-        <v>155.9033104517704</v>
+        <v>155.9033104517702</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107729</v>
+        <v>60.90377530107686</v>
       </c>
       <c r="K2" t="n">
-        <v>40.02794296996257</v>
+        <v>29.24248535878988</v>
       </c>
       <c r="L2" t="n">
-        <v>12.38369583986409</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,19 +27418,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855381</v>
+        <v>27.67667403855307</v>
       </c>
       <c r="Q2" t="n">
-        <v>68.80718401073761</v>
+        <v>69.44336957621798</v>
       </c>
       <c r="R2" t="n">
-        <v>108.4565837973586</v>
+        <v>126.6666668443896</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365428</v>
+        <v>176.7634676365427</v>
       </c>
       <c r="T2" t="n">
-        <v>216.8993262493833</v>
+        <v>216.8993262493832</v>
       </c>
       <c r="U2" t="n">
         <v>251.2324097633065</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>154.4984159412844</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>139.4349974083696</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>126.8591293463526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5861368634446</v>
@@ -27476,10 +27476,10 @@
         <v>104.9207450255981</v>
       </c>
       <c r="I3" t="n">
-        <v>73.445909152792</v>
+        <v>72.94759778420901</v>
       </c>
       <c r="J3" t="n">
-        <v>55.28179755587591</v>
+        <v>37.0717145088435</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27500,16 +27500,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.30284318957034</v>
+        <v>25.09276014253784</v>
       </c>
       <c r="R3" t="n">
-        <v>98.65548851006884</v>
+        <v>80.44540546303652</v>
       </c>
       <c r="S3" t="n">
-        <v>157.1168528514439</v>
+        <v>157.6151642200256</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1119545918173</v>
+        <v>197.1119545918172</v>
       </c>
       <c r="U3" t="n">
         <v>225.8915544296744</v>
@@ -27555,34 +27555,34 @@
         <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
-        <v>136.3554298199558</v>
+        <v>136.3554298199557</v>
       </c>
       <c r="J4" t="n">
-        <v>82.10359380956197</v>
+        <v>82.10359380956181</v>
       </c>
       <c r="K4" t="n">
-        <v>55.24219515018304</v>
+        <v>55.24219515018277</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48311410323807</v>
+        <v>40.48311410323774</v>
       </c>
       <c r="M4" t="n">
-        <v>39.39257270660852</v>
+        <v>39.39257270660816</v>
       </c>
       <c r="N4" t="n">
-        <v>30.51901051988169</v>
+        <v>30.51901051988135</v>
       </c>
       <c r="O4" t="n">
-        <v>48.70751749406196</v>
+        <v>48.70751749406165</v>
       </c>
       <c r="P4" t="n">
-        <v>60.93221199728788</v>
+        <v>60.9322119972876</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.33557584850173</v>
+        <v>98.33557584850155</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545824</v>
+        <v>148.7431818545823</v>
       </c>
       <c r="S4" t="n">
         <v>212.9509385839194</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>383.7388905389833</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.01861771953256</v>
+        <v>0.2236106924079309</v>
       </c>
       <c r="R5" t="n">
         <v>115.3674336481769</v>
@@ -27673,13 +27673,13 @@
         <v>251.2180195592479</v>
       </c>
       <c r="V5" t="n">
-        <v>311.4911490091182</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>319.9360936513444</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,16 +27695,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>122.9134919611911</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>97.65005853751413</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>128.6212221673242</v>
       </c>
       <c r="G6" t="n">
         <v>136.4898938890125</v>
@@ -27716,7 +27716,7 @@
         <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
-        <v>2.329504874093416</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27737,7 +27737,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>92.6799817290989</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>155.9779781763528</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27859,22 +27859,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>269.8177099473384</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>325.5740782643986</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
-        <v>207.7600497819527</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>136.685125759028</v>
+        <v>24.57246563410433</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946475</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>95.35315165846217</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>165.4040387101213</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>214.7171693596231</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
       </c>
       <c r="V8" t="n">
-        <v>215.6395983452115</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>323.3654980219372</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,28 +27932,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>165.3118196149175</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>35.3324054397151</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>45.53242033047729</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>32.95655226846023</v>
       </c>
       <c r="G9" t="n">
         <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>64.2628644631298</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867677</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,10 +27974,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821503</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.09559288881304</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -27989,16 +27989,16 @@
         <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>120.6879270245018</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>97.25630729457366</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>93.57003565238094</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>144.9900955294088</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,28 +28032,28 @@
         <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>66.29456574971169</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26310570632468</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>7.238823902544823</v>
+        <v>3.613446413741165</v>
       </c>
       <c r="M10" t="n">
-        <v>4.341129883412151</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>17.10165812996885</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P10" t="n">
-        <v>33.88793923037932</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.61152319847206</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R10" t="n">
         <v>138.6889896488451</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.84614050971249e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.890042048302771e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605494</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>31.61020235221391</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="J34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="K34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="L34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="M34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="N34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="O34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="P34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="R34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="S34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221457</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221326</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.415539306624355</v>
+        <v>1.41553930662436</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396668</v>
+        <v>14.49689192396673</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863552</v>
+        <v>54.57257911863571</v>
       </c>
       <c r="J2" t="n">
-        <v>120.142129225609</v>
+        <v>120.1421292256094</v>
       </c>
       <c r="K2" t="n">
-        <v>180.061908075018</v>
+        <v>180.0619080750186</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301231</v>
+        <v>223.3827191301239</v>
       </c>
       <c r="M2" t="n">
-        <v>248.556316274304</v>
+        <v>248.5563162743049</v>
       </c>
       <c r="N2" t="n">
-        <v>247.6231466436222</v>
+        <v>247.6231466436231</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490045</v>
+        <v>238.5024483490054</v>
       </c>
       <c r="P2" t="n">
-        <v>203.5563217167157</v>
+        <v>203.5563217167165</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.862320298231</v>
+        <v>152.8623202982315</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974224</v>
+        <v>88.91887096974256</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970253</v>
+        <v>32.25660194970264</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748119</v>
+        <v>6.19652331474814</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299484</v>
+        <v>0.1132431445299488</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660413</v>
+        <v>0.757380299766044</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898348</v>
+        <v>7.314699210898373</v>
       </c>
       <c r="I3" t="n">
-        <v>26.076470847208</v>
+        <v>26.0764708472081</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079078</v>
+        <v>71.55582911079104</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951155</v>
+        <v>122.300309195116</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269055</v>
+        <v>156.7644628269063</v>
       </c>
       <c r="M3" t="n">
-        <v>160.3441169690496</v>
+        <v>160.3441169690505</v>
       </c>
       <c r="N3" t="n">
-        <v>149.5517951303646</v>
+        <v>138.1640227923884</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4185551534992</v>
+        <v>160.8063274914766</v>
       </c>
       <c r="P3" t="n">
-        <v>144.6264188211136</v>
+        <v>144.6264188211142</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645118</v>
+        <v>96.67893089645152</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389511</v>
+        <v>47.02401545389527</v>
       </c>
       <c r="S3" t="n">
-        <v>14.0680068838122</v>
+        <v>14.06800688381226</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004349</v>
+        <v>3.05277410300436</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039747</v>
+        <v>0.04982765130039765</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706385</v>
+        <v>0.6349622012706407</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660772</v>
+        <v>5.645391207660792</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730248</v>
+        <v>19.09504510730255</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983414</v>
+        <v>44.8918276298343</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035234</v>
+        <v>73.77106302035261</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800022</v>
+        <v>94.40156217800055</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099654</v>
+        <v>99.53321124099689</v>
       </c>
       <c r="N4" t="n">
-        <v>97.1665339453515</v>
+        <v>97.16653394535184</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778083</v>
+        <v>89.74902095778114</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205185973</v>
+        <v>76.79579205186002</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094411</v>
+        <v>53.16942578094429</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258707</v>
+        <v>28.55020952258717</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305285</v>
+        <v>11.06565945305289</v>
       </c>
       <c r="T4" t="n">
-        <v>2.71302031452</v>
+        <v>2.71302031452001</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748941</v>
+        <v>0.03463430188748954</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31370,7 +31370,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>157.3072689909255</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
         <v>191.9290409491429</v>
@@ -31382,7 +31382,7 @@
         <v>192.3912514715691</v>
       </c>
       <c r="P6" t="n">
-        <v>163.0046057545602</v>
+        <v>134.9670493543445</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.914033170647242</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H8" t="n">
-        <v>19.60209220889108</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I8" t="n">
-        <v>73.79076381137789</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J8" t="n">
-        <v>162.4511728172215</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K8" t="n">
-        <v>243.4721969307194</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L8" t="n">
-        <v>302.048789576915</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M8" t="n">
-        <v>336.0874769754129</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N8" t="n">
-        <v>341.5257237215143</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O8" t="n">
-        <v>322.4930563808908</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P8" t="n">
-        <v>275.240362480537</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6940495567326</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R8" t="n">
         <v>120.23238615567</v>
       </c>
       <c r="S8" t="n">
-        <v>43.61603087612408</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T8" t="n">
-        <v>8.378680204508308</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1531226536517794</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>1.024098030879797</v>
       </c>
       <c r="H9" t="n">
-        <v>9.890630982444353</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I9" t="n">
-        <v>35.2595155368702</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J9" t="n">
-        <v>96.75480562798992</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>165.3693736969363</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
-        <v>222.3595307837909</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>254.2466940469417</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>189.1706736602743</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
-        <v>243.6589731628786</v>
+        <v>189.3752746148963</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177394</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.7252153102</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R9" t="n">
-        <v>63.58391107515091</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S9" t="n">
-        <v>19.02217175778919</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T9" t="n">
-        <v>4.127833729730407</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06737487045261822</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8585693874071345</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H10" t="n">
-        <v>7.633462371674347</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I10" t="n">
-        <v>25.81952303220729</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J10" t="n">
-        <v>60.70085568968441</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K10" t="n">
-        <v>99.7501524642107</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L10" t="n">
         <v>127.6458523786935</v>
       </c>
       <c r="M10" t="n">
-        <v>134.5846540641929</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N10" t="n">
-        <v>131.3845318020391</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O10" t="n">
-        <v>121.3548803218739</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P10" t="n">
-        <v>103.8400648187683</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.89347843097379</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R10" t="n">
-        <v>38.60440172832442</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S10" t="n">
-        <v>14.9625228696316</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T10" t="n">
-        <v>3.66843283710321</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04683105749493467</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601096</v>
+        <v>4.7098196736011</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226724</v>
+        <v>48.23444073226727</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665064</v>
+        <v>181.5753229665066</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223014</v>
+        <v>399.7400575223017</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058359</v>
+        <v>599.1067243058363</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418056</v>
+        <v>743.2448681418061</v>
       </c>
       <c r="M14" t="n">
-        <v>827.003123762209</v>
+        <v>827.0031237622097</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098282</v>
+        <v>840.3848989098288</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304573</v>
+        <v>793.5516295304578</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384302</v>
+        <v>677.2779563384306</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775907</v>
+        <v>508.6075392775911</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718451</v>
+        <v>295.8532100718454</v>
       </c>
       <c r="S14" t="n">
-        <v>107.3250158121851</v>
+        <v>107.3250158121852</v>
       </c>
       <c r="T14" t="n">
-        <v>20.61723562118881</v>
+        <v>20.61723562118882</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880876</v>
+        <v>0.3767855738880879</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681947</v>
+        <v>2.519975686681949</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137565</v>
+        <v>24.33765992137567</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146178</v>
+        <v>86.76232079146185</v>
       </c>
       <c r="J15" t="n">
-        <v>238.0824397667361</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744265</v>
+        <v>234.3875890028881</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332885</v>
+        <v>547.1552472332889</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755089</v>
+        <v>638.5043658755095</v>
       </c>
       <c r="N15" t="n">
-        <v>655.4036765111964</v>
+        <v>655.4036765111969</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062963</v>
+        <v>599.5663205062968</v>
       </c>
       <c r="P15" t="n">
-        <v>186.6467569260824</v>
+        <v>481.2048309068364</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999622</v>
+        <v>321.6726858999625</v>
       </c>
       <c r="R15" t="n">
-        <v>156.4595430731125</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762297</v>
+        <v>46.80744312762301</v>
       </c>
       <c r="T15" t="n">
         <v>10.1572704213189</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238124</v>
+        <v>0.1657878741238125</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244427</v>
+        <v>2.112662964244429</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482774</v>
+        <v>18.78349435482776</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291426</v>
+        <v>63.53353714291431</v>
       </c>
       <c r="J16" t="n">
-        <v>149.365271572081</v>
+        <v>149.3652715720811</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913071</v>
+        <v>245.4530243913073</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023034</v>
+        <v>314.0953647023036</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587878</v>
+        <v>331.169522658788</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102406</v>
+        <v>323.2950516102409</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824761</v>
+        <v>298.6153069824763</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118896</v>
+        <v>255.5169825118898</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150493</v>
+        <v>176.9067142150494</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320851</v>
+        <v>94.99300928320858</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869606</v>
+        <v>36.81795365869608</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408005</v>
+        <v>9.026832665408012</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1152361616860598</v>
+        <v>0.1152361616860599</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,22 +32321,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>573.1387203886723</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q18" t="n">
-        <v>226.9718386705491</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486998</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>494.9858886872148</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32786,13 +32786,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>381.8167079645557</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
         <v>696.597129487967</v>
@@ -32801,13 +32801,13 @@
         <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33032,22 +33032,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>529.6867378368186</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N27" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P27" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33266,7 +33266,7 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L30" t="n">
-        <v>309.517958025931</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
         <v>696.597129487967</v>
@@ -33275,16 +33275,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33503,25 +33503,25 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>476.5490354591188</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N33" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P33" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486998</v>
@@ -33740,25 +33740,25 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L36" t="n">
-        <v>472.9693813169747</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N36" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P36" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486998</v>
@@ -33980,22 +33980,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
-        <v>591.0665301174793</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691327</v>
+        <v>209.0440289417418</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486998</v>
@@ -34217,22 +34217,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
-        <v>591.0665301174793</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>209.0440289417418</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34445,16 +34445,16 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J45" t="n">
-        <v>160.7914670367595</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>443.9435090247271</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155585</v>
+        <v>287.3850959028137</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
         <v>715.033982716063</v>
@@ -34466,7 +34466,7 @@
         <v>524.9860796892351</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.2100830470313</v>
+        <v>18.21008304703216</v>
       </c>
       <c r="N2" t="n">
-        <v>18.2100830470313</v>
+        <v>18.21008304703216</v>
       </c>
       <c r="O2" t="n">
-        <v>8.404236927317811</v>
+        <v>8.404236927318664</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.2100830470313</v>
+        <v>18.21008304703216</v>
       </c>
       <c r="M3" t="n">
-        <v>18.2100830470313</v>
+        <v>18.21008304703216</v>
       </c>
       <c r="N3" t="n">
-        <v>18.2100830470313</v>
+        <v>6.822310709055036</v>
       </c>
       <c r="O3" t="n">
-        <v>6.822310709054721</v>
+        <v>18.21008304703216</v>
       </c>
       <c r="P3" t="n">
-        <v>10.6520114067834</v>
+        <v>10.65201140678391</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>18.75288921105129</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
         <v>49.79500702712463</v>
@@ -35030,7 +35030,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="P6" t="n">
-        <v>29.03019834022993</v>
+        <v>0.9926419400142784</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.38234588573883</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L8" t="n">
-        <v>66.28237460692776</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M8" t="n">
-        <v>105.7412437481401</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N8" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O8" t="n">
-        <v>92.39484495920411</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P8" t="n">
-        <v>44.00736672526745</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.5279347225773</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
-        <v>83.80515100391676</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>57.82896157694098</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
-        <v>101.0627287184342</v>
+        <v>46.77903017045187</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340917</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35340,7 +35340,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.698987336805942</v>
+        <v>3.698987336806027</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661307012</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956151</v>
+        <v>218.6941529956154</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608553</v>
+        <v>379.0168732608558</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718183</v>
+        <v>507.4784531718189</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349363</v>
+        <v>596.656890534937</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132373</v>
+        <v>610.971835313238</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087705</v>
+        <v>563.4534181087711</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831606</v>
+        <v>446.0449605831611</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031412</v>
+        <v>286.3018494031417</v>
       </c>
       <c r="R14" t="n">
-        <v>80.267672257713</v>
+        <v>80.26767225771323</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.2448131000694</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000675</v>
+        <v>96.5461500285291</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534143</v>
+        <v>408.6008674534148</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534906</v>
+        <v>496.3703319534912</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278631</v>
+        <v>524.0619644278636</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618518</v>
+        <v>456.9700760618524</v>
       </c>
       <c r="P15" t="n">
-        <v>52.67234951175217</v>
+        <v>347.2304234925061</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.6909118139407</v>
+        <v>181.6909118139409</v>
       </c>
       <c r="R15" t="n">
-        <v>10.78003910914856</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540824</v>
+        <v>56.00609145540835</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654242</v>
+        <v>223.1835325654244</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626195</v>
+        <v>341.6853899626198</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206284</v>
+        <v>370.7533996206286</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894692</v>
+        <v>367.4272239894694</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965157</v>
+        <v>323.200434896516</v>
       </c>
       <c r="P16" t="n">
-        <v>252.795541776783</v>
+        <v>252.7955417767832</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335489</v>
+        <v>90.74467096335503</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>441.7970083053389</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q18" t="n">
-        <v>86.99006458452753</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440239</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>363.6441766038815</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817348</v>
@@ -36288,13 +36288,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>243.9752689901967</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
@@ -36449,13 +36449,13 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
         <v>428.4516387010908</v>
@@ -36534,7 +36534,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641579</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>387.5527039148003</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908707</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L30" t="n">
-        <v>170.9635782460568</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
@@ -36923,16 +36923,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37151,25 +37151,25 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>334.4150015371005</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P33" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193534</v>
       </c>
       <c r="K34" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908725</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L36" t="n">
-        <v>334.4150015371005</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P36" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>459.724818034146</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193575</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553057</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37865,22 +37865,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>459.724818034146</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>33.95384037009282</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>306.1020700503681</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356843</v>
+        <v>148.8307161229395</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
         <v>583.6922706327297</v>
@@ -38114,7 +38114,7 @@
         <v>391.0116722749049</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
